--- a/input_invoices.xlsx
+++ b/input_invoices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aghna\Desktop\تحويل الفواتير الى قيد يومية\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\تحويل الفواتير الى قيد يومية\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B2478E-7470-41D5-90B5-34363AFB2D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C692ACC0-6027-4C78-BF7F-8D54D064C538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0A13CA94-C18A-4954-A2E1-975EA8B9F1AC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
@@ -24,21 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="15">
   <si>
     <t>رقم الفاتورة</t>
   </si>
@@ -71,9 +62,6 @@
   </si>
   <si>
     <t>الامام3</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>الامام2</t>
@@ -135,12 +123,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -152,6 +139,42 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -216,26 +239,6 @@
       <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="178"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -262,43 +265,27 @@
       <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -645,7 +632,7 @@
     <dataField name="Sum of المبلغ شامل الضريبة" fld="3" baseField="0" baseItem="0" numFmtId="43"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="13">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -662,21 +649,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1DB59FA-8479-4309-8685-758AFAF8A911}" name="Table1" displayName="Table1" ref="A1:H35" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1DB59FA-8479-4309-8685-758AFAF8A911}" name="Table1" displayName="Table1" ref="A1:H34" totalsRowShown="0">
   <autoFilter ref="A1:H34" xr:uid="{D1DB59FA-8479-4309-8685-758AFAF8A911}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F20D9A04-3B88-4687-80FF-52723F7500F0}" name="التاريخ" totalsRowLabel="Total"/>
-    <tableColumn id="6" xr3:uid="{E3F71AF4-E980-4E2C-9BED-236EFCBE7903}" name="اصل المبلغ" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{1DA8725E-1FB9-4267-BD7C-4F28632287CB}" name="الضريبة" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="2" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{F20D9A04-3B88-4687-80FF-52723F7500F0}" name="التاريخ"/>
+    <tableColumn id="6" xr3:uid="{E3F71AF4-E980-4E2C-9BED-236EFCBE7903}" name="اصل المبلغ" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{1DA8725E-1FB9-4267-BD7C-4F28632287CB}" name="الضريبة" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Comma">
       <calculatedColumnFormula>B2*0.15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{75620BB7-93CA-4F2F-ACE1-DDC66C9CC8B7}" name="المبلغ شامل الضريبة" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="1" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{75620BB7-93CA-4F2F-ACE1-DDC66C9CC8B7}" name="المبلغ شامل الضريبة" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Comma">
       <calculatedColumnFormula>C2+B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4AFBE490-69AC-4DBB-8471-9DDF81CEE836}" name="المشروع" dataDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{941E0EA6-B6A3-48E3-AB84-BF66FAC4BA34}" name="رقم الفاتورة" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{4AFBE490-69AC-4DBB-8471-9DDF81CEE836}" name="المشروع" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{941E0EA6-B6A3-48E3-AB84-BF66FAC4BA34}" name="رقم الفاتورة" dataDxfId="6" dataCellStyle="Comma"/>
     <tableColumn id="3" xr3:uid="{4E79DF70-4C49-46F6-A95E-886D604D3B9A}" name="المورد"/>
-    <tableColumn id="4" xr3:uid="{2605E4A4-BC9F-447E-996B-A46A0DB7EA6A}" name="الرقم الضريبي" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{2605E4A4-BC9F-447E-996B-A46A0DB7EA6A}" name="الرقم الضريبي" dataDxfId="5" totalsRowDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -982,10 +969,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1031,7 @@
         <v>1599.65</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>4903</v>
@@ -1072,7 +1059,7 @@
         <v>1599.65</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>4902</v>
@@ -1100,7 +1087,7 @@
         <v>2335.4659999999999</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>4812</v>
@@ -1128,7 +1115,7 @@
         <v>5996.1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>4868</v>
@@ -1156,7 +1143,7 @@
         <v>1599.65</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>4874</v>
@@ -1184,7 +1171,7 @@
         <v>1599.65</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>4715</v>
@@ -1212,7 +1199,7 @@
         <v>1599.65</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>4687</v>
@@ -1240,7 +1227,7 @@
         <v>1599.65</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>4942</v>
@@ -1268,7 +1255,7 @@
         <v>1700.85</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10">
         <v>4522</v>
@@ -1952,33 +1939,13 @@
         <v>310169565400003</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="4">
-        <f>SUBTOTAL(109,Table1[اصل المبلغ])</f>
-        <v>39402.04</v>
-      </c>
-      <c r="C35" s="4">
-        <f>SUBTOTAL(109,Table1[الضريبة])</f>
-        <v>5910.3059999999996</v>
-      </c>
-      <c r="D35" s="4">
-        <f>SUBTOTAL(109,Table1[المبلغ شامل الضريبة])</f>
-        <v>45312.346000000005</v>
-      </c>
-      <c r="E35"/>
-      <c r="G35"/>
-      <c r="H35" s="2"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F34">
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2003,42 +1970,42 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5016.3230000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3401.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6">
+        <v>29018.927499999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7">
-        <v>5016.3230000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="7">
-        <v>3401.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="7">
-        <v>29018.927499999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>37436.950499999999</v>
       </c>
     </row>

--- a/input_invoices.xlsx
+++ b/input_invoices.xlsx
@@ -5,31 +5,39 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\تحويل الفواتير الى قيد يومية\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C692ACC0-6027-4C78-BF7F-8D54D064C538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F283A2-4379-45EE-A64A-06E9242D2CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0A13CA94-C18A-4954-A2E1-975EA8B9F1AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
-  </pivotCaches>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Table1[#All]</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="12">
   <si>
     <t>رقم الفاتورة</t>
   </si>
@@ -65,15 +73,6 @@
   </si>
   <si>
     <t>الامام2</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sum of المبلغ شامل الضريبة</t>
   </si>
 </sst>
 </file>
@@ -123,22 +122,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -173,10 +170,25 @@
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -199,93 +211,31 @@
       <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="178"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="178"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="178"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="178"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -300,370 +250,22 @@
 </styleSheet>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="aghna" refreshedDate="45168.396072916665" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="24" xr:uid="{F8C0DB6C-FF2B-411F-86AA-36B261E4B568}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Table1"/>
-  </cacheSource>
-  <cacheFields count="8">
-    <cacheField name="التاريخ" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-08-08T00:00:00" maxDate="2023-08-30T00:00:00"/>
-    </cacheField>
-    <cacheField name="اصل المبلغ" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="90" maxValue="4996"/>
-    </cacheField>
-    <cacheField name="الضريبة" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.5" maxValue="749.4"/>
-    </cacheField>
-    <cacheField name="المبلغ شامل الضريبة" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="103.5" maxValue="5745.4"/>
-    </cacheField>
-    <cacheField name="المشروع" numFmtId="0">
-      <sharedItems count="3">
-        <s v="الامام1"/>
-        <s v="الامام3"/>
-        <s v="الامام2"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="رقم الفاتورة" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4132" maxValue="4455"/>
-    </cacheField>
-    <cacheField name="المورد" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="الرقم الضريبي" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="310169565400003" maxValue="310169565400003"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="24">
-  <r>
-    <d v="2023-08-09T00:00:00"/>
-    <n v="295.8"/>
-    <n v="44.37"/>
-    <n v="340.17"/>
-    <x v="0"/>
-    <n v="4141"/>
-    <s v="مؤسسة شريفة حشيفان العتيبي لمواد البناء"/>
-    <n v="310169565400003"/>
-  </r>
-  <r>
-    <d v="2023-08-28T00:00:00"/>
-    <n v="1479"/>
-    <n v="221.85"/>
-    <n v="1700.85"/>
-    <x v="1"/>
-    <n v="4445"/>
-    <s v="مؤسسة شريفة حشيفان العتيبي لمواد البناء"/>
-    <n v="310169565400003"/>
-  </r>
-  <r>
-    <d v="2023-08-15T00:00:00"/>
-    <n v="140"/>
-    <n v="21"/>
-    <n v="161"/>
-    <x v="0"/>
-    <n v="4216"/>
-    <s v="مؤسسة شريفة حشيفان العتيبي لمواد البناء"/>
-    <n v="310169565400003"/>
-  </r>
-  <r>
-    <d v="2023-08-16T00:00:00"/>
-    <n v="100"/>
-    <n v="15"/>
-    <n v="115"/>
-    <x v="0"/>
-    <n v="4239"/>
-    <s v="مؤسسة شريفة حشيفان العتيبي لمواد البناء"/>
-    <n v="310169565400003"/>
-  </r>
-  <r>
-    <d v="2023-08-14T00:00:00"/>
-    <n v="1479"/>
-    <n v="221.85"/>
-    <n v="1700.85"/>
-    <x v="1"/>
-    <n v="4212"/>
-    <s v="مؤسسة شريفة حشيفان العتيبي لمواد البناء"/>
-    <n v="310169565400003"/>
-  </r>
-  <r>
-    <d v="2023-08-19T00:00:00"/>
-    <n v="90"/>
-    <n v="13.5"/>
-    <n v="103.5"/>
-    <x v="1"/>
-    <n v="4277"/>
-    <s v="مؤسسة شريفة حشيفان العتيبي لمواد البناء"/>
-    <n v="310169565400003"/>
-  </r>
-  <r>
-    <d v="2023-08-12T00:00:00"/>
-    <n v="782.4"/>
-    <n v="117.35999999999999"/>
-    <n v="899.76"/>
-    <x v="1"/>
-    <n v="4165"/>
-    <s v="مؤسسة شريفة حشيفان العتيبي لمواد البناء"/>
-    <n v="310169565400003"/>
-  </r>
-  <r>
-    <d v="2023-08-16T00:00:00"/>
-    <n v="1982.52"/>
-    <n v="297.37799999999999"/>
-    <n v="2279.8980000000001"/>
-    <x v="0"/>
-    <n v="4251"/>
-    <s v="مؤسسة شريفة حشيفان العتيبي لمواد البناء"/>
-    <n v="310169565400003"/>
-  </r>
-  <r>
-    <d v="2023-08-19T00:00:00"/>
-    <n v="1479"/>
-    <n v="221.85"/>
-    <n v="1700.85"/>
-    <x v="1"/>
-    <n v="4282"/>
-    <s v="مؤسسة شريفة حشيفان العتيبي لمواد البناء"/>
-    <n v="310169565400003"/>
-  </r>
-  <r>
-    <d v="2023-08-08T00:00:00"/>
-    <n v="1479"/>
-    <n v="221.85"/>
-    <n v="1700.85"/>
-    <x v="1"/>
-    <n v="4132"/>
-    <s v="مؤسسة شريفة حشيفان العتيبي لمواد البناء"/>
-    <n v="310169565400003"/>
-  </r>
-  <r>
-    <d v="2023-08-19T00:00:00"/>
-    <n v="1400"/>
-    <n v="210"/>
-    <n v="1610"/>
-    <x v="1"/>
-    <n v="4286"/>
-    <s v="مؤسسة شريفة حشيفان العتيبي لمواد البناء"/>
-    <n v="310169565400003"/>
-  </r>
-  <r>
-    <d v="2023-08-20T00:00:00"/>
-    <n v="2958"/>
-    <n v="443.7"/>
-    <n v="3401.7"/>
-    <x v="2"/>
-    <n v="4300"/>
-    <s v="مؤسسة شريفة حشيفان العتيبي لمواد البناء"/>
-    <n v="310169565400003"/>
-  </r>
-  <r>
-    <d v="2023-08-20T00:00:00"/>
-    <n v="450"/>
-    <n v="67.5"/>
-    <n v="517.5"/>
-    <x v="1"/>
-    <n v="4296"/>
-    <s v="مؤسسة شريفة حشيفان العتيبي لمواد البناء"/>
-    <n v="310169565400003"/>
-  </r>
-  <r>
-    <d v="2023-08-21T00:00:00"/>
-    <n v="1479"/>
-    <n v="221.85"/>
-    <n v="1700.85"/>
-    <x v="1"/>
-    <n v="4321"/>
-    <s v="مؤسسة شريفة حشيفان العتيبي لمواد البناء"/>
-    <n v="310169565400003"/>
-  </r>
-  <r>
-    <d v="2023-08-21T00:00:00"/>
-    <n v="2478.15"/>
-    <n v="371.72250000000003"/>
-    <n v="2849.8724999999999"/>
-    <x v="1"/>
-    <n v="4323"/>
-    <s v="مؤسسة شريفة حشيفان العتيبي لمواد البناء"/>
-    <n v="310169565400003"/>
-  </r>
-  <r>
-    <d v="2023-08-21T00:00:00"/>
-    <n v="420"/>
-    <n v="63"/>
-    <n v="483"/>
-    <x v="1"/>
-    <n v="4314"/>
-    <s v="مؤسسة شريفة حشيفان العتيبي لمواد البناء"/>
-    <n v="310169565400003"/>
-  </r>
-  <r>
-    <d v="2023-08-23T00:00:00"/>
-    <n v="1479"/>
-    <n v="221.85"/>
-    <n v="1700.85"/>
-    <x v="1"/>
-    <n v="4359"/>
-    <s v="مؤسسة شريفة حشيفان العتيبي لمواد البناء"/>
-    <n v="310169565400003"/>
-  </r>
-  <r>
-    <d v="2023-08-23T00:00:00"/>
-    <n v="1330"/>
-    <n v="199.5"/>
-    <n v="1529.5"/>
-    <x v="1"/>
-    <n v="4351"/>
-    <s v="مؤسسة شريفة حشيفان العتيبي لمواد البناء"/>
-    <n v="310169565400003"/>
-  </r>
-  <r>
-    <d v="2023-08-22T00:00:00"/>
-    <n v="1564.8"/>
-    <n v="234.71999999999997"/>
-    <n v="1799.52"/>
-    <x v="1"/>
-    <n v="4332"/>
-    <s v="مؤسسة شريفة حشيفان العتيبي لمواد البناء"/>
-    <n v="310169565400003"/>
-  </r>
-  <r>
-    <d v="2023-08-10T00:00:00"/>
-    <n v="630"/>
-    <n v="94.5"/>
-    <n v="724.5"/>
-    <x v="1"/>
-    <n v="4147"/>
-    <s v="مؤسسة شريفة حشيفان العتيبي لمواد البناء"/>
-    <n v="310169565400003"/>
-  </r>
-  <r>
-    <d v="2023-08-10T00:00:00"/>
-    <n v="2218.5"/>
-    <n v="332.77499999999998"/>
-    <n v="2551.2750000000001"/>
-    <x v="1"/>
-    <n v="4155"/>
-    <s v="مؤسسة شريفة حشيفان العتيبي لمواد البناء"/>
-    <n v="310169565400003"/>
-  </r>
-  <r>
-    <d v="2023-08-29T00:00:00"/>
-    <n v="4996"/>
-    <n v="749.4"/>
-    <n v="5745.4"/>
-    <x v="1"/>
-    <n v="4455"/>
-    <s v="مؤسسة شريفة حشيفان العتيبي لمواد البناء"/>
-    <n v="310169565400003"/>
-  </r>
-  <r>
-    <d v="2023-08-22T00:00:00"/>
-    <n v="1400"/>
-    <n v="210"/>
-    <n v="1610"/>
-    <x v="0"/>
-    <n v="4336"/>
-    <s v="مؤسسة شريفة حشيفان العتيبي لمواد البناء"/>
-    <n v="310169565400003"/>
-  </r>
-  <r>
-    <d v="2023-08-19T00:00:00"/>
-    <n v="443.7"/>
-    <n v="66.554999999999993"/>
-    <n v="510.255"/>
-    <x v="0"/>
-    <n v="4270"/>
-    <s v="مؤسسة شريفة حشيفان العتيبي لمواد البناء"/>
-    <n v="310169565400003"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E51AEBE5-3FE9-40A8-BB0F-C122C7FE6777}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of المبلغ شامل الضريبة" fld="3" baseField="0" baseItem="0" numFmtId="43"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="3">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1DB59FA-8479-4309-8685-758AFAF8A911}" name="Table1" displayName="Table1" ref="A1:H34" totalsRowShown="0">
-  <autoFilter ref="A1:H34" xr:uid="{D1DB59FA-8479-4309-8685-758AFAF8A911}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1DB59FA-8479-4309-8685-758AFAF8A911}" name="Table1" displayName="Table1" ref="A1:H24" totalsRowShown="0">
+  <autoFilter ref="A1:H24" xr:uid="{D1DB59FA-8479-4309-8685-758AFAF8A911}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F20D9A04-3B88-4687-80FF-52723F7500F0}" name="التاريخ"/>
-    <tableColumn id="6" xr3:uid="{E3F71AF4-E980-4E2C-9BED-236EFCBE7903}" name="اصل المبلغ" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{1DA8725E-1FB9-4267-BD7C-4F28632287CB}" name="الضريبة" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{E3F71AF4-E980-4E2C-9BED-236EFCBE7903}" name="اصل المبلغ" dataDxfId="13" totalsRowDxfId="9" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{1DA8725E-1FB9-4267-BD7C-4F28632287CB}" name="الضريبة" dataDxfId="12" totalsRowDxfId="8" dataCellStyle="Comma">
       <calculatedColumnFormula>B2*0.15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{75620BB7-93CA-4F2F-ACE1-DDC66C9CC8B7}" name="المبلغ شامل الضريبة" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{75620BB7-93CA-4F2F-ACE1-DDC66C9CC8B7}" name="المبلغ شامل الضريبة" dataDxfId="11" totalsRowDxfId="7" dataCellStyle="Comma">
       <calculatedColumnFormula>C2+B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4AFBE490-69AC-4DBB-8471-9DDF81CEE836}" name="المشروع" dataDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{941E0EA6-B6A3-48E3-AB84-BF66FAC4BA34}" name="رقم الفاتورة" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{4AFBE490-69AC-4DBB-8471-9DDF81CEE836}" name="المشروع" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{941E0EA6-B6A3-48E3-AB84-BF66FAC4BA34}" name="رقم الفاتورة" dataDxfId="4" dataCellStyle="Comma"/>
     <tableColumn id="3" xr3:uid="{4E79DF70-4C49-46F6-A95E-886D604D3B9A}" name="المورد"/>
-    <tableColumn id="4" xr3:uid="{2605E4A4-BC9F-447E-996B-A46A0DB7EA6A}" name="الرقم الضريبي" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{2605E4A4-BC9F-447E-996B-A46A0DB7EA6A}" name="الرقم الضريبي" dataDxfId="10" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -969,10 +571,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,8 +586,9 @@
     <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1017,24 +620,24 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45202</v>
+        <v>45238</v>
       </c>
       <c r="B2" s="3">
-        <v>1391</v>
+        <v>756.3</v>
       </c>
       <c r="C2" s="3">
         <f t="shared" ref="C2:C3" si="0">B2*0.15</f>
-        <v>208.65</v>
+        <v>113.44499999999999</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="1">C2+B2</f>
-        <v>1599.65</v>
+        <v>869.74499999999989</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>4903</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5463</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -1045,24 +648,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45202</v>
+        <v>45230</v>
       </c>
       <c r="B3" s="3">
-        <v>1391</v>
+        <v>23129.4</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" si="0"/>
-        <v>208.65</v>
+        <v>3469.4100000000003</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="1"/>
-        <v>1599.65</v>
+        <v>26598.81</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
-        <v>4902</v>
+      <c r="F3" s="4">
+        <v>5356</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -1073,24 +676,24 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45193</v>
+        <v>45232</v>
       </c>
       <c r="B4" s="3">
-        <v>2030.84</v>
+        <v>1391</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C25" si="2">B4*0.15</f>
-        <v>304.62599999999998</v>
+        <f t="shared" ref="C4:C24" si="2">B4*0.15</f>
+        <v>208.65</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D25" si="3">C4+B4</f>
-        <v>2335.4659999999999</v>
+        <f t="shared" ref="D4:D24" si="3">C4+B4</f>
+        <v>1599.65</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4">
-        <v>4812</v>
+      <c r="F4" s="4">
+        <v>5390</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -1101,24 +704,24 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45198</v>
+        <v>45237</v>
       </c>
       <c r="B5" s="3">
-        <v>5214</v>
+        <v>1199.7</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="2"/>
-        <v>782.1</v>
+        <v>179.95500000000001</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="3"/>
-        <v>5996.1</v>
+        <v>1379.655</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5">
-        <v>4868</v>
+      <c r="F5" s="4">
+        <v>5453</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -1129,24 +732,24 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45199</v>
+        <v>45238</v>
       </c>
       <c r="B6" s="3">
-        <v>1391</v>
+        <v>3043.25</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="2"/>
-        <v>208.65</v>
+        <v>456.48750000000001</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="3"/>
-        <v>1599.65</v>
+        <v>3499.7375000000002</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6">
-        <v>4874</v>
+      <c r="F6" s="4">
+        <v>5461</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
@@ -1157,24 +760,24 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45185</v>
+        <v>45239</v>
       </c>
       <c r="B7" s="3">
-        <v>1391</v>
+        <v>1304.25</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="2"/>
-        <v>208.65</v>
+        <v>195.63749999999999</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="3"/>
-        <v>1599.65</v>
+        <v>1499.8875</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7">
-        <v>4715</v>
+      <c r="F7" s="4">
+        <v>5488</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -1185,24 +788,24 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45182</v>
+        <v>45243</v>
       </c>
       <c r="B8" s="3">
-        <v>1391</v>
+        <v>8134.45</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="2"/>
-        <v>208.65</v>
+        <f>B8*0.15</f>
+        <v>1220.1675</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="3"/>
-        <v>1599.65</v>
+        <f>C8+B8</f>
+        <v>9354.6175000000003</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F8">
-        <v>4687</v>
+      <c r="F8" s="4">
+        <v>5556</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
@@ -1213,24 +816,24 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45204</v>
+        <v>45248</v>
       </c>
       <c r="B9" s="3">
-        <v>1391</v>
+        <v>495.63</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="2"/>
-        <v>208.65</v>
+        <f>B9*0.15</f>
+        <v>74.344499999999996</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="3"/>
-        <v>1599.65</v>
+        <f>C9+B9</f>
+        <v>569.97450000000003</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F9">
-        <v>4942</v>
+      <c r="F9" s="4">
+        <v>5620</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
@@ -1241,24 +844,24 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45171</v>
+        <v>45237</v>
       </c>
       <c r="B10" s="3">
-        <v>1479</v>
+        <v>87</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="2"/>
-        <v>221.85</v>
+        <v>13.049999999999999</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="3"/>
-        <v>1700.85</v>
+        <v>100.05</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10">
-        <v>4522</v>
+        <v>10</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5454</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
@@ -1269,24 +872,24 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45173</v>
+        <v>45241</v>
       </c>
       <c r="B11" s="3">
-        <v>243.4</v>
+        <v>174</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="2"/>
-        <v>36.51</v>
+        <v>26.099999999999998</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="3"/>
-        <v>279.91000000000003</v>
+        <v>200.1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>4583</v>
+        <v>10</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5504</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
@@ -1297,24 +900,24 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45174</v>
+        <v>45235</v>
       </c>
       <c r="B12" s="3">
-        <v>293.5</v>
+        <v>695.5</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="2"/>
-        <v>44.024999999999999</v>
+        <v>104.325</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="3"/>
-        <v>337.52499999999998</v>
+        <v>799.82500000000005</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12">
-        <v>4594</v>
+        <v>10</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5420</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
@@ -1325,24 +928,24 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45173</v>
+        <v>45232</v>
       </c>
       <c r="B13" s="3">
-        <v>2450</v>
+        <v>165</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="2"/>
-        <v>367.5</v>
+        <v>24.75</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="3"/>
-        <v>2817.5</v>
+        <v>189.75</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F13">
-        <v>4572</v>
+      <c r="F13" s="4">
+        <v>5398</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
@@ -1353,24 +956,24 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45173</v>
+        <v>45234</v>
       </c>
       <c r="B14" s="3">
-        <v>115.5</v>
+        <v>695.5</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="2"/>
-        <v>17.324999999999999</v>
+        <v>104.325</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="3"/>
-        <v>132.82499999999999</v>
+        <v>799.82500000000005</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14">
-        <v>4576</v>
+      <c r="F14" s="4">
+        <v>5412</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
@@ -1381,24 +984,24 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45171</v>
+        <v>45234</v>
       </c>
       <c r="B15" s="3">
-        <v>1400</v>
+        <v>495.6</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="2"/>
-        <v>210</v>
+        <v>74.34</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="3"/>
-        <v>1610</v>
+        <v>569.94000000000005</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F15">
-        <v>4532</v>
+      <c r="F15" s="4">
+        <v>5410</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
@@ -1409,24 +1012,24 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45172</v>
+        <v>45235</v>
       </c>
       <c r="B16" s="3">
-        <v>1479</v>
+        <v>165</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" si="2"/>
-        <v>221.85</v>
+        <v>24.75</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="3"/>
-        <v>1700.85</v>
+        <v>189.75</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F16">
-        <v>4543</v>
+      <c r="F16" s="4">
+        <v>5419</v>
       </c>
       <c r="G16" t="s">
         <v>8</v>
@@ -1437,24 +1040,24 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45171</v>
+        <v>45230</v>
       </c>
       <c r="B17" s="3">
-        <v>652</v>
+        <v>435</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" si="2"/>
-        <v>97.8</v>
+        <v>65.25</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="3"/>
-        <v>749.8</v>
+        <v>500.25</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F17">
-        <v>4537</v>
+      <c r="F17" s="4">
+        <v>5358</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
@@ -1465,24 +1068,24 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45193</v>
+        <v>45230</v>
       </c>
       <c r="B18" s="3">
-        <v>1486.8</v>
+        <v>120</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" si="2"/>
-        <v>223.01999999999998</v>
+        <v>18</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="3"/>
-        <v>1709.82</v>
+        <v>138</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F18">
-        <v>4814</v>
+      <c r="F18" s="4">
+        <v>5364</v>
       </c>
       <c r="G18" t="s">
         <v>8</v>
@@ -1493,24 +1096,24 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45200</v>
+        <v>45232</v>
       </c>
       <c r="B19" s="3">
-        <v>869</v>
+        <v>500</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="2"/>
-        <v>130.35</v>
+        <v>75</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="3"/>
-        <v>999.35</v>
+        <v>575</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F19">
-        <v>4876</v>
+      <c r="F19" s="4">
+        <v>5388</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
@@ -1521,24 +1124,24 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45199</v>
+        <v>45231</v>
       </c>
       <c r="B20" s="3">
-        <v>1299.5</v>
+        <v>1098.1300000000001</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" si="2"/>
-        <v>194.92499999999998</v>
+        <v>164.71950000000001</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="3"/>
-        <v>1494.425</v>
+        <v>1262.8495</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F20">
-        <v>4869</v>
+      <c r="F20" s="4">
+        <v>5373</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
@@ -1549,24 +1152,24 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45197</v>
+        <v>45238</v>
       </c>
       <c r="B21" s="3">
-        <v>695.5</v>
+        <v>2608.5</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" si="2"/>
-        <v>104.325</v>
+        <v>391.27499999999998</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="3"/>
-        <v>799.82500000000005</v>
+        <v>2999.7750000000001</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F21">
-        <v>4854</v>
+      <c r="F21" s="4">
+        <v>5477</v>
       </c>
       <c r="G21" t="s">
         <v>8</v>
@@ -1577,24 +1180,24 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45193</v>
+        <v>45238</v>
       </c>
       <c r="B22" s="3">
-        <v>1260.5</v>
+        <v>810.15</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" si="2"/>
-        <v>189.07499999999999</v>
+        <v>121.52249999999999</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="3"/>
-        <v>1449.575</v>
+        <v>931.67250000000001</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F22">
-        <v>4793</v>
+      <c r="F22" s="4">
+        <v>5470</v>
       </c>
       <c r="G22" t="s">
         <v>8</v>
@@ -1605,24 +1208,24 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45197</v>
+        <v>45238</v>
       </c>
       <c r="B23" s="3">
-        <v>1478</v>
+        <v>630.25</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" si="2"/>
-        <v>221.7</v>
+        <v>94.537499999999994</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="3"/>
-        <v>1699.7</v>
+        <v>724.78750000000002</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F23">
-        <v>4863</v>
+      <c r="F23" s="4">
+        <v>5462</v>
       </c>
       <c r="G23" t="s">
         <v>8</v>
@@ -1633,309 +1236,29 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B24" s="3">
-        <v>390</v>
+        <v>208.8</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" si="2"/>
-        <v>58.5</v>
+        <v>31.32</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" si="3"/>
-        <v>448.5</v>
+        <v>240.12</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F24">
-        <v>4883</v>
+      <c r="F24" s="4">
+        <v>5355</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="2">
-        <v>310169565400003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>45193</v>
-      </c>
-      <c r="B25" s="3">
-        <v>208.8</v>
-      </c>
-      <c r="C25" s="3">
-        <f t="shared" si="2"/>
-        <v>31.32</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="3"/>
-        <v>240.12</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25">
-        <v>4794</v>
-      </c>
-      <c r="G25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="2">
-        <v>310169565400003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>45185</v>
-      </c>
-      <c r="B26" s="3">
-        <v>704.2</v>
-      </c>
-      <c r="C26" s="3">
-        <f t="shared" ref="C26:C34" si="4">B26*0.15</f>
-        <v>105.63000000000001</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" ref="D26:D34" si="5">C26+B26</f>
-        <v>809.83</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26">
-        <v>4713</v>
-      </c>
-      <c r="G26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="2">
-        <v>310169565400003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>45190</v>
-      </c>
-      <c r="B27" s="3">
-        <v>2086.5</v>
-      </c>
-      <c r="C27" s="3">
-        <f t="shared" si="4"/>
-        <v>312.97499999999997</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="5"/>
-        <v>2399.4749999999999</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27">
-        <v>4778</v>
-      </c>
-      <c r="G27" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="2">
-        <v>310169565400003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>45183</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1391</v>
-      </c>
-      <c r="C28" s="3">
-        <f t="shared" si="4"/>
-        <v>208.65</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" si="5"/>
-        <v>1599.65</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28">
-        <v>4699</v>
-      </c>
-      <c r="G28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="2">
-        <v>310169565400003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>45187</v>
-      </c>
-      <c r="B29" s="3">
-        <v>756.3</v>
-      </c>
-      <c r="C29" s="3">
-        <f t="shared" si="4"/>
-        <v>113.44499999999999</v>
-      </c>
-      <c r="D29" s="3">
-        <f t="shared" si="5"/>
-        <v>869.74499999999989</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29">
-        <v>4733</v>
-      </c>
-      <c r="G29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="2">
-        <v>310169565400003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>45204</v>
-      </c>
-      <c r="B30" s="3">
-        <v>434.5</v>
-      </c>
-      <c r="C30" s="3">
-        <f t="shared" si="4"/>
-        <v>65.174999999999997</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" si="5"/>
-        <v>499.67500000000001</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30">
-        <v>4950</v>
-      </c>
-      <c r="G30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="2">
-        <v>310169565400003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>45206</v>
-      </c>
-      <c r="B31" s="3">
-        <v>170</v>
-      </c>
-      <c r="C31" s="3">
-        <f t="shared" si="4"/>
-        <v>25.5</v>
-      </c>
-      <c r="D31" s="3">
-        <f t="shared" si="5"/>
-        <v>195.5</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31">
-        <v>4963</v>
-      </c>
-      <c r="G31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="2">
-        <v>310169565400003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>45206</v>
-      </c>
-      <c r="B32" s="3">
-        <v>90</v>
-      </c>
-      <c r="C32" s="3">
-        <f t="shared" si="4"/>
-        <v>13.5</v>
-      </c>
-      <c r="D32" s="3">
-        <f t="shared" si="5"/>
-        <v>103.5</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32">
-        <v>4967</v>
-      </c>
-      <c r="G32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="2">
-        <v>310169565400003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>45203</v>
-      </c>
-      <c r="B33" s="3">
-        <v>1509.2</v>
-      </c>
-      <c r="C33" s="3">
-        <f t="shared" si="4"/>
-        <v>226.38</v>
-      </c>
-      <c r="D33" s="3">
-        <f t="shared" si="5"/>
-        <v>1735.58</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33">
-        <v>4941</v>
-      </c>
-      <c r="G33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="2">
-        <v>310169565400003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>45202</v>
-      </c>
-      <c r="B34" s="3">
-        <v>869</v>
-      </c>
-      <c r="C34" s="3">
-        <f t="shared" si="4"/>
-        <v>130.35</v>
-      </c>
-      <c r="D34" s="3">
-        <f t="shared" si="5"/>
-        <v>999.35</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34">
-        <v>4901</v>
-      </c>
-      <c r="G34" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="2">
         <v>310169565400003</v>
       </c>
     </row>
@@ -1943,9 +1266,9 @@
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F34">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  <conditionalFormatting sqref="F2:F24">
+    <cfRule type="duplicateValues" dxfId="1" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1953,63 +1276,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234AC013-381E-48D8-BCDE-16CA579B268D}">
-  <dimension ref="A3:B7"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6">
-        <v>5016.3230000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6">
-        <v>3401.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6">
-        <v>29018.927499999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="6">
-        <v>37436.950499999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/input_invoices.xlsx
+++ b/input_invoices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\original\invoices-to-journal-entry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F283A2-4379-45EE-A64A-06E9242D2CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0025254C-187F-4940-AC03-4E0BA7DCD796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0A13CA94-C18A-4954-A2E1-975EA8B9F1AC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="13">
   <si>
     <t>رقم الفاتورة</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>الامام2</t>
+  </si>
+  <si>
+    <t>مورد1</t>
   </si>
 </sst>
 </file>
@@ -135,7 +138,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -167,7 +170,10 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -211,7 +217,7 @@
       <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -223,19 +229,10 @@
       <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -255,17 +252,17 @@
   <autoFilter ref="A1:H24" xr:uid="{D1DB59FA-8479-4309-8685-758AFAF8A911}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F20D9A04-3B88-4687-80FF-52723F7500F0}" name="التاريخ"/>
-    <tableColumn id="6" xr3:uid="{E3F71AF4-E980-4E2C-9BED-236EFCBE7903}" name="اصل المبلغ" dataDxfId="13" totalsRowDxfId="9" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{1DA8725E-1FB9-4267-BD7C-4F28632287CB}" name="الضريبة" dataDxfId="12" totalsRowDxfId="8" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{E3F71AF4-E980-4E2C-9BED-236EFCBE7903}" name="اصل المبلغ" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{1DA8725E-1FB9-4267-BD7C-4F28632287CB}" name="الضريبة" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Comma">
       <calculatedColumnFormula>B2*0.15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{75620BB7-93CA-4F2F-ACE1-DDC66C9CC8B7}" name="المبلغ شامل الضريبة" dataDxfId="11" totalsRowDxfId="7" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{75620BB7-93CA-4F2F-ACE1-DDC66C9CC8B7}" name="المبلغ شامل الضريبة" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Comma">
       <calculatedColumnFormula>C2+B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4AFBE490-69AC-4DBB-8471-9DDF81CEE836}" name="المشروع" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{941E0EA6-B6A3-48E3-AB84-BF66FAC4BA34}" name="رقم الفاتورة" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{4AFBE490-69AC-4DBB-8471-9DDF81CEE836}" name="المشروع" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{941E0EA6-B6A3-48E3-AB84-BF66FAC4BA34}" name="رقم الفاتورة" dataDxfId="5" dataCellStyle="Comma"/>
     <tableColumn id="3" xr3:uid="{4E79DF70-4C49-46F6-A95E-886D604D3B9A}" name="المورد"/>
-    <tableColumn id="4" xr3:uid="{2605E4A4-BC9F-447E-996B-A46A0DB7EA6A}" name="الرقم الضريبي" dataDxfId="10" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{2605E4A4-BC9F-447E-996B-A46A0DB7EA6A}" name="الرقم الضريبي" dataDxfId="4" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -574,7 +571,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,10 +637,10 @@
         <v>5463</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2">
-        <v>310169565400003</v>
+        <v>3100000000003</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">

--- a/input_invoices.xlsx
+++ b/input_invoices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\original\invoices-to-journal-entry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0025254C-187F-4940-AC03-4E0BA7DCD796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA35897B-9AC8-46E5-AAFF-4B26D295E242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0A13CA94-C18A-4954-A2E1-975EA8B9F1AC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="52">
   <si>
     <t>رقم الفاتورة</t>
   </si>
@@ -75,7 +75,124 @@
     <t>الامام2</t>
   </si>
   <si>
-    <t>مورد1</t>
+    <t>فلل التخصصي</t>
+  </si>
+  <si>
+    <t>5960</t>
+  </si>
+  <si>
+    <t>5959</t>
+  </si>
+  <si>
+    <t>5958</t>
+  </si>
+  <si>
+    <t>5961</t>
+  </si>
+  <si>
+    <t>5957</t>
+  </si>
+  <si>
+    <t>5732</t>
+  </si>
+  <si>
+    <t>5668</t>
+  </si>
+  <si>
+    <t>5897</t>
+  </si>
+  <si>
+    <t>5565</t>
+  </si>
+  <si>
+    <t>5598</t>
+  </si>
+  <si>
+    <t>5526</t>
+  </si>
+  <si>
+    <t>5669</t>
+  </si>
+  <si>
+    <t>5667</t>
+  </si>
+  <si>
+    <t>5717</t>
+  </si>
+  <si>
+    <t>5834</t>
+  </si>
+  <si>
+    <t>5746</t>
+  </si>
+  <si>
+    <t>5886</t>
+  </si>
+  <si>
+    <t>5860</t>
+  </si>
+  <si>
+    <t>5889</t>
+  </si>
+  <si>
+    <t>5885</t>
+  </si>
+  <si>
+    <t>5549</t>
+  </si>
+  <si>
+    <t>5625</t>
+  </si>
+  <si>
+    <t>5582</t>
+  </si>
+  <si>
+    <t>5571</t>
+  </si>
+  <si>
+    <t>5605</t>
+  </si>
+  <si>
+    <t>5651</t>
+  </si>
+  <si>
+    <t>5680</t>
+  </si>
+  <si>
+    <t>5782</t>
+  </si>
+  <si>
+    <t>5779</t>
+  </si>
+  <si>
+    <t>5794</t>
+  </si>
+  <si>
+    <t>5823</t>
+  </si>
+  <si>
+    <t>5747</t>
+  </si>
+  <si>
+    <t>5781</t>
+  </si>
+  <si>
+    <t>5881</t>
+  </si>
+  <si>
+    <t>5874</t>
+  </si>
+  <si>
+    <t>5888</t>
+  </si>
+  <si>
+    <t>5891</t>
+  </si>
+  <si>
+    <t>5893</t>
+  </si>
+  <si>
+    <t>5909</t>
   </si>
 </sst>
 </file>
@@ -125,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -133,12 +250,48 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -197,32 +350,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="178"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -248,21 +375,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1DB59FA-8479-4309-8685-758AFAF8A911}" name="Table1" displayName="Table1" ref="A1:H24" totalsRowShown="0">
-  <autoFilter ref="A1:H24" xr:uid="{D1DB59FA-8479-4309-8685-758AFAF8A911}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1DB59FA-8479-4309-8685-758AFAF8A911}" name="Table1" displayName="Table1" ref="A1:H40" totalsRowShown="0">
+  <autoFilter ref="A1:H40" xr:uid="{D1DB59FA-8479-4309-8685-758AFAF8A911}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F20D9A04-3B88-4687-80FF-52723F7500F0}" name="التاريخ"/>
     <tableColumn id="6" xr3:uid="{E3F71AF4-E980-4E2C-9BED-236EFCBE7903}" name="اصل المبلغ" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{1DA8725E-1FB9-4267-BD7C-4F28632287CB}" name="الضريبة" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{1DA8725E-1FB9-4267-BD7C-4F28632287CB}" name="الضريبة" dataDxfId="2" totalsRowDxfId="10" dataCellStyle="Comma">
       <calculatedColumnFormula>B2*0.15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{75620BB7-93CA-4F2F-ACE1-DDC66C9CC8B7}" name="المبلغ شامل الضريبة" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{75620BB7-93CA-4F2F-ACE1-DDC66C9CC8B7}" name="المبلغ شامل الضريبة" dataDxfId="0" totalsRowDxfId="9" dataCellStyle="Comma">
       <calculatedColumnFormula>C2+B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4AFBE490-69AC-4DBB-8471-9DDF81CEE836}" name="المشروع" dataDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{941E0EA6-B6A3-48E3-AB84-BF66FAC4BA34}" name="رقم الفاتورة" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{4AFBE490-69AC-4DBB-8471-9DDF81CEE836}" name="المشروع" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{941E0EA6-B6A3-48E3-AB84-BF66FAC4BA34}" name="رقم الفاتورة" dataDxfId="8" dataCellStyle="Comma"/>
     <tableColumn id="3" xr3:uid="{4E79DF70-4C49-46F6-A95E-886D604D3B9A}" name="المورد"/>
-    <tableColumn id="4" xr3:uid="{2605E4A4-BC9F-447E-996B-A46A0DB7EA6A}" name="الرقم الضريبي" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{2605E4A4-BC9F-447E-996B-A46A0DB7EA6A}" name="الرقم الضريبي" dataDxfId="7" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -568,10 +695,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,8 +706,8 @@
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -599,7 +726,7 @@
       <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
@@ -617,52 +744,52 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45238</v>
+        <v>45264</v>
       </c>
       <c r="B2" s="3">
-        <v>756.3</v>
+        <v>1391</v>
       </c>
       <c r="C2" s="3">
         <f t="shared" ref="C2:C3" si="0">B2*0.15</f>
-        <v>113.44499999999999</v>
-      </c>
-      <c r="D2" s="3">
+        <v>208.65</v>
+      </c>
+      <c r="D2" s="6">
         <f t="shared" ref="D2:D3" si="1">C2+B2</f>
-        <v>869.74499999999989</v>
+        <v>1599.65</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4">
-        <v>5463</v>
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>3100000000003</v>
+        <v>310169565400003</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45230</v>
+        <v>45264</v>
       </c>
       <c r="B3" s="3">
-        <v>23129.4</v>
+        <v>695.5</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" si="0"/>
-        <v>3469.4100000000003</v>
-      </c>
-      <c r="D3" s="3">
+        <v>104.325</v>
+      </c>
+      <c r="D3" s="6">
         <f t="shared" si="1"/>
-        <v>26598.81</v>
+        <v>799.82500000000005</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4">
-        <v>5356</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -673,24 +800,24 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45232</v>
+        <v>45264</v>
       </c>
       <c r="B4" s="3">
         <v>1391</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C24" si="2">B4*0.15</f>
+        <f t="shared" ref="C4:C37" si="2">B4*0.15</f>
         <v>208.65</v>
       </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D24" si="3">C4+B4</f>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D37" si="3">C4+B4</f>
         <v>1599.65</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4">
-        <v>5390</v>
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -701,24 +828,24 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45237</v>
+        <v>45264</v>
       </c>
       <c r="B5" s="3">
-        <v>1199.7</v>
+        <v>1391</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="2"/>
-        <v>179.95500000000001</v>
-      </c>
-      <c r="D5" s="3">
+        <v>208.65</v>
+      </c>
+      <c r="D5" s="6">
         <f t="shared" si="3"/>
-        <v>1379.655</v>
+        <v>1599.65</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4">
-        <v>5453</v>
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -729,24 +856,24 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45238</v>
+        <v>45264</v>
       </c>
       <c r="B6" s="3">
-        <v>3043.25</v>
+        <v>1391</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="2"/>
-        <v>456.48750000000001</v>
-      </c>
-      <c r="D6" s="3">
+        <v>208.65</v>
+      </c>
+      <c r="D6" s="6">
         <f t="shared" si="3"/>
-        <v>3499.7375000000002</v>
+        <v>1599.65</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4">
-        <v>5461</v>
+        <v>12</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
@@ -757,24 +884,24 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45239</v>
+        <v>45253</v>
       </c>
       <c r="B7" s="3">
-        <v>1304.25</v>
+        <v>1391</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="2"/>
-        <v>195.63749999999999</v>
-      </c>
-      <c r="D7" s="3">
+        <v>208.65</v>
+      </c>
+      <c r="D7" s="6">
         <f t="shared" si="3"/>
-        <v>1499.8875</v>
+        <v>1599.65</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4">
-        <v>5488</v>
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -785,24 +912,24 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45243</v>
+        <v>45250</v>
       </c>
       <c r="B8" s="3">
-        <v>8134.45</v>
+        <v>1703.9</v>
       </c>
       <c r="C8" s="3">
         <f>B8*0.15</f>
-        <v>1220.1675</v>
-      </c>
-      <c r="D8" s="3">
+        <v>255.58500000000001</v>
+      </c>
+      <c r="D8" s="6">
         <f>C8+B8</f>
-        <v>9354.6175000000003</v>
+        <v>1959.4850000000001</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="4">
-        <v>5556</v>
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
@@ -813,24 +940,24 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45248</v>
+        <v>45262</v>
       </c>
       <c r="B9" s="3">
-        <v>495.63</v>
+        <v>252.1</v>
       </c>
       <c r="C9" s="3">
         <f>B9*0.15</f>
-        <v>74.344499999999996</v>
-      </c>
-      <c r="D9" s="3">
+        <v>37.814999999999998</v>
+      </c>
+      <c r="D9" s="6">
         <f>C9+B9</f>
-        <v>569.97450000000003</v>
+        <v>289.91499999999996</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="4">
-        <v>5620</v>
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
@@ -841,24 +968,24 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45237</v>
+        <v>45244</v>
       </c>
       <c r="B10" s="3">
-        <v>87</v>
+        <v>695.5</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="2"/>
-        <v>13.049999999999999</v>
-      </c>
-      <c r="D10" s="3">
+        <v>104.325</v>
+      </c>
+      <c r="D10" s="6">
         <f t="shared" si="3"/>
-        <v>100.05</v>
+        <v>799.82500000000005</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4">
-        <v>5454</v>
+        <v>11</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
@@ -869,24 +996,24 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45241</v>
+        <v>45245</v>
       </c>
       <c r="B11" s="3">
-        <v>174</v>
+        <v>443.7</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="2"/>
-        <v>26.099999999999998</v>
-      </c>
-      <c r="D11" s="3">
+        <v>66.554999999999993</v>
+      </c>
+      <c r="D11" s="6">
         <f t="shared" si="3"/>
-        <v>200.1</v>
+        <v>510.255</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4">
-        <v>5504</v>
+        <v>11</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
@@ -897,7 +1024,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="B12" s="3">
         <v>695.5</v>
@@ -906,15 +1033,15 @@
         <f t="shared" si="2"/>
         <v>104.325</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="6">
         <f t="shared" si="3"/>
         <v>799.82500000000005</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4">
-        <v>5420</v>
+        <v>11</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
@@ -925,24 +1052,24 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45232</v>
+        <v>45250</v>
       </c>
       <c r="B13" s="3">
-        <v>165</v>
+        <v>695.5</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="2"/>
-        <v>24.75</v>
-      </c>
-      <c r="D13" s="3">
+        <v>104.325</v>
+      </c>
+      <c r="D13" s="6">
         <f t="shared" si="3"/>
-        <v>189.75</v>
+        <v>799.82500000000005</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4">
-        <v>5398</v>
+        <v>11</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
@@ -953,80 +1080,80 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45234</v>
+        <v>45250</v>
       </c>
       <c r="B14" s="3">
-        <v>695.5</v>
+        <v>7927.5</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="2"/>
+        <v>1189.125</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="3"/>
+        <v>9116.625</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="2">
+        <v>310169565400003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2782</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="2"/>
+        <v>417.3</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="3"/>
+        <v>3199.3</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2">
+        <v>310169565400003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B16" s="3">
+        <v>695.5</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="2"/>
         <v>104.325</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D16" s="6">
         <f t="shared" si="3"/>
         <v>799.82500000000005</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4">
-        <v>5412</v>
-      </c>
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="2">
-        <v>310169565400003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45234</v>
-      </c>
-      <c r="B15" s="3">
-        <v>495.6</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" si="2"/>
-        <v>74.34</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="3"/>
-        <v>569.94000000000005</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4">
-        <v>5410</v>
-      </c>
-      <c r="G15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="2">
-        <v>310169565400003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45235</v>
-      </c>
-      <c r="B16" s="3">
-        <v>165</v>
-      </c>
-      <c r="C16" s="3">
-        <f t="shared" si="2"/>
-        <v>24.75</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="3"/>
-        <v>189.75</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="4">
-        <v>5419</v>
+        <v>11</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="G16" t="s">
         <v>8</v>
@@ -1037,24 +1164,24 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45230</v>
+        <v>45255</v>
       </c>
       <c r="B17" s="3">
-        <v>435</v>
+        <v>695.5</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" si="2"/>
-        <v>65.25</v>
-      </c>
-      <c r="D17" s="3">
+        <v>104.325</v>
+      </c>
+      <c r="D17" s="6">
         <f t="shared" si="3"/>
-        <v>500.25</v>
+        <v>799.82500000000005</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="4">
-        <v>5358</v>
+        <v>11</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
@@ -1065,24 +1192,24 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B18" s="3">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="3"/>
-        <v>138</v>
+        <f t="shared" ref="C18:C24" si="4">B18*0.15</f>
+        <v>26.099999999999998</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" ref="D18:D24" si="5">C18+B18</f>
+        <v>200.1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="4">
-        <v>5364</v>
+        <v>11</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="G18" t="s">
         <v>8</v>
@@ -1093,24 +1220,24 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45232</v>
+        <v>45260</v>
       </c>
       <c r="B19" s="3">
-        <v>500</v>
+        <v>695.5</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="3"/>
-        <v>575</v>
+        <f t="shared" si="4"/>
+        <v>104.325</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="5"/>
+        <v>799.82500000000005</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="4">
-        <v>5388</v>
+        <v>11</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
@@ -1121,24 +1248,24 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45231</v>
+        <v>45260</v>
       </c>
       <c r="B20" s="3">
-        <v>1098.1300000000001</v>
+        <v>1391</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="2"/>
-        <v>164.71950000000001</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="3"/>
-        <v>1262.8495</v>
+        <f t="shared" si="4"/>
+        <v>208.65</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="5"/>
+        <v>1599.65</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4">
-        <v>5373</v>
+        <v>11</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
@@ -1149,24 +1276,24 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45238</v>
+        <v>45260</v>
       </c>
       <c r="B21" s="3">
-        <v>2608.5</v>
+        <v>261</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="2"/>
-        <v>391.27499999999998</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="3"/>
-        <v>2999.7750000000001</v>
+        <f t="shared" si="4"/>
+        <v>39.15</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="5"/>
+        <v>300.14999999999998</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="4">
-        <v>5477</v>
+      <c r="F21" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="G21" t="s">
         <v>8</v>
@@ -1177,24 +1304,24 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45238</v>
+        <v>45243</v>
       </c>
       <c r="B22" s="3">
-        <v>810.15</v>
+        <v>1260.5</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" si="2"/>
-        <v>121.52249999999999</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="3"/>
-        <v>931.67250000000001</v>
+        <f t="shared" si="4"/>
+        <v>189.07499999999999</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="5"/>
+        <v>1449.575</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="4">
-        <v>5470</v>
+      <c r="F22" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>8</v>
@@ -1205,24 +1332,24 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45238</v>
+        <v>45248</v>
       </c>
       <c r="B23" s="3">
-        <v>630.25</v>
+        <v>435</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" si="2"/>
-        <v>94.537499999999994</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="3"/>
-        <v>724.78750000000002</v>
+        <f t="shared" si="4"/>
+        <v>65.25</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="5"/>
+        <v>500.25</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="4">
-        <v>5462</v>
+      <c r="F23" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="G23" t="s">
         <v>8</v>
@@ -1233,42 +1360,490 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45230</v>
+        <v>45245</v>
       </c>
       <c r="B24" s="3">
-        <v>208.8</v>
+        <v>3447</v>
       </c>
       <c r="C24" s="3">
+        <f t="shared" si="4"/>
+        <v>517.04999999999995</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="5"/>
+        <v>3964.05</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="2">
+        <v>310169565400003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B25" s="3">
+        <v>434.5</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" ref="C25:C31" si="6">B25*0.15</f>
+        <v>65.174999999999997</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" ref="D25:D31" si="7">C25+B25</f>
+        <v>499.67500000000001</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="2">
+        <v>310169565400003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B26" s="3">
+        <v>870</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="6"/>
+        <v>130.5</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" si="7"/>
+        <v>1000.5</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="2">
+        <v>310169565400003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45249</v>
+      </c>
+      <c r="B27" s="3">
+        <v>173.8</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="6"/>
+        <v>26.07</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" si="7"/>
+        <v>199.87</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="2">
+        <v>310169565400003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45251</v>
+      </c>
+      <c r="B28" s="3">
+        <v>504.2</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="6"/>
+        <v>75.63</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" si="7"/>
+        <v>579.82999999999993</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="2">
+        <v>310169565400003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B29" s="3">
+        <v>180.24</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="6"/>
+        <v>27.036000000000001</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" si="7"/>
+        <v>207.27600000000001</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="2">
+        <v>310169565400003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B30" s="3">
+        <v>434.75</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="6"/>
+        <v>65.212499999999991</v>
+      </c>
+      <c r="D30" s="6">
+        <f t="shared" si="7"/>
+        <v>499.96249999999998</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="2">
+        <v>310169565400003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B31" s="3">
+        <v>166.8</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="6"/>
+        <v>25.02</v>
+      </c>
+      <c r="D31" s="6">
+        <f t="shared" si="7"/>
+        <v>191.82000000000002</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="2">
+        <v>310169565400003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B32" s="3">
+        <v>295.8</v>
+      </c>
+      <c r="C32" s="3">
         <f t="shared" si="2"/>
-        <v>31.32</v>
-      </c>
-      <c r="D24" s="3">
+        <v>44.37</v>
+      </c>
+      <c r="D32" s="6">
         <f t="shared" si="3"/>
-        <v>240.12</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="4">
-        <v>5355</v>
-      </c>
-      <c r="G24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="2">
+        <v>340.17</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="2">
+        <v>310169565400003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45255</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1260.5</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="2"/>
+        <v>189.07499999999999</v>
+      </c>
+      <c r="D33" s="6">
+        <f t="shared" si="3"/>
+        <v>1449.575</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="2">
+        <v>310169565400003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B34" s="3">
+        <v>87</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="2"/>
+        <v>13.049999999999999</v>
+      </c>
+      <c r="D34" s="6">
+        <f t="shared" si="3"/>
+        <v>100.05</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="2">
+        <v>310169565400003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B35" s="3">
+        <v>261</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="2"/>
+        <v>39.15</v>
+      </c>
+      <c r="D35" s="6">
+        <f t="shared" si="3"/>
+        <v>300.14999999999998</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="2">
+        <v>310169565400003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B36" s="3">
+        <v>300</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="D36" s="6">
+        <f t="shared" si="3"/>
+        <v>345</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="2">
+        <v>310169565400003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B37" s="3">
+        <v>260.85000000000002</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="2"/>
+        <v>39.127500000000005</v>
+      </c>
+      <c r="D37" s="6">
+        <f t="shared" si="3"/>
+        <v>299.97750000000002</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="2">
+        <v>310169565400003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B38" s="3">
+        <v>9912.6</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" ref="C38:C40" si="8">B38*0.15</f>
+        <v>1486.89</v>
+      </c>
+      <c r="D38" s="6">
+        <f t="shared" ref="D38:D40" si="9">C38+B38</f>
+        <v>11399.49</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="2">
+        <v>310169565400003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1304.25</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="8"/>
+        <v>195.63749999999999</v>
+      </c>
+      <c r="D39" s="6">
+        <f t="shared" si="9"/>
+        <v>1499.8875</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="2">
+        <v>310169565400003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45262</v>
+      </c>
+      <c r="B40" s="3">
+        <v>630.25</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="8"/>
+        <v>94.537499999999994</v>
+      </c>
+      <c r="D40" s="6">
+        <f t="shared" si="9"/>
+        <v>724.78750000000002</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="2">
         <v>310169565400003</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F24">
-    <cfRule type="duplicateValues" dxfId="1" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
+  <conditionalFormatting sqref="F2:F40">
+    <cfRule type="duplicateValues" dxfId="4" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/input_invoices.xlsx
+++ b/input_invoices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\original\invoices-to-journal-entry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\original\coding\invoices-to-journal-entry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6412C7FC-CCAF-48FF-83F8-E53A44F94B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C833890C-5F21-42D1-85C4-591E10AC8EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0A13CA94-C18A-4954-A2E1-975EA8B9F1AC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Table1[#All]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>رقم الفاتورة</t>
   </si>
@@ -63,31 +63,40 @@
     <t>المبلغ شامل الضريبة</t>
   </si>
   <si>
-    <t>الامام3</t>
-  </si>
-  <si>
-    <t>الامام2</t>
-  </si>
-  <si>
-    <t>1018901</t>
-  </si>
-  <si>
-    <t>شركة الحوامة للتجارة</t>
-  </si>
-  <si>
-    <t>نخيل الجامعة</t>
-  </si>
-  <si>
-    <t>1018920</t>
-  </si>
-  <si>
-    <t>1019588</t>
-  </si>
-  <si>
-    <t>1020186</t>
-  </si>
-  <si>
-    <t>1020316</t>
+    <t>فلل التخصصي</t>
+  </si>
+  <si>
+    <t>مؤسسة شريفة حشيفان العتيبي لمواد البناء</t>
+  </si>
+  <si>
+    <t>6444</t>
+  </si>
+  <si>
+    <t>6447</t>
+  </si>
+  <si>
+    <t>6477</t>
+  </si>
+  <si>
+    <t>6487</t>
+  </si>
+  <si>
+    <t>6539</t>
+  </si>
+  <si>
+    <t>عمارة التخصصي</t>
+  </si>
+  <si>
+    <t>6486</t>
+  </si>
+  <si>
+    <t>6544</t>
+  </si>
+  <si>
+    <t>6545</t>
+  </si>
+  <si>
+    <t>6420</t>
   </si>
 </sst>
 </file>
@@ -137,7 +146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -150,6 +159,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -267,16 +283,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1DB59FA-8479-4309-8685-758AFAF8A911}" name="Table1" displayName="Table1" ref="A1:H6" totalsRowShown="0">
-  <autoFilter ref="A1:H6" xr:uid="{D1DB59FA-8479-4309-8685-758AFAF8A911}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1DB59FA-8479-4309-8685-758AFAF8A911}" name="Table1" displayName="Table1" ref="A1:H10" totalsRowShown="0">
+  <autoFilter ref="A1:H10" xr:uid="{D1DB59FA-8479-4309-8685-758AFAF8A911}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F20D9A04-3B88-4687-80FF-52723F7500F0}" name="التاريخ"/>
     <tableColumn id="6" xr3:uid="{E3F71AF4-E980-4E2C-9BED-236EFCBE7903}" name="اصل المبلغ" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Comma"/>
     <tableColumn id="7" xr3:uid="{1DA8725E-1FB9-4267-BD7C-4F28632287CB}" name="الضريبة" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Comma">
-      <calculatedColumnFormula>B2*0.15</calculatedColumnFormula>
+      <calculatedColumnFormula>Table1[[#This Row],[اصل المبلغ]]*0.15</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{75620BB7-93CA-4F2F-ACE1-DDC66C9CC8B7}" name="المبلغ شامل الضريبة" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Comma">
-      <calculatedColumnFormula>C2+B2</calculatedColumnFormula>
+      <calculatedColumnFormula>Table1[[#This Row],[الضريبة]]+Table1[[#This Row],[اصل المبلغ]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{4AFBE490-69AC-4DBB-8471-9DDF81CEE836}" name="المشروع" dataDxfId="6" dataCellStyle="Comma"/>
     <tableColumn id="2" xr3:uid="{941E0EA6-B6A3-48E3-AB84-BF66FAC4BA34}" name="رقم الفاتورة" dataDxfId="5" dataCellStyle="Comma"/>
@@ -587,19 +603,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -636,18 +652,18 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45253</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1999.47</v>
-      </c>
-      <c r="C2" s="3">
-        <f t="shared" ref="C2:C3" si="0">B2*0.15</f>
-        <v>299.9205</v>
-      </c>
-      <c r="D2" s="5">
-        <f t="shared" ref="D2:D3" si="1">C2+B2</f>
-        <v>2299.3905</v>
+        <v>45293</v>
+      </c>
+      <c r="B2" s="7">
+        <v>278.2</v>
+      </c>
+      <c r="C2" s="7">
+        <f>Table1[[#This Row],[اصل المبلغ]]*0.15</f>
+        <v>41.73</v>
+      </c>
+      <c r="D2" s="8">
+        <f>Table1[[#This Row],[الضريبة]]+Table1[[#This Row],[اصل المبلغ]]</f>
+        <v>319.93</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -656,134 +672,246 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H2" s="2">
-        <v>311340058700003</v>
+        <v>310864207200003</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45253</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1010</v>
-      </c>
-      <c r="C3" s="3">
-        <f t="shared" si="0"/>
-        <v>151.5</v>
-      </c>
-      <c r="D3" s="5">
-        <f t="shared" si="1"/>
-        <v>1161.5</v>
+        <v>45294</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1260.5</v>
+      </c>
+      <c r="C3" s="7">
+        <f>Table1[[#This Row],[اصل المبلغ]]*0.15</f>
+        <v>189.07499999999999</v>
+      </c>
+      <c r="D3" s="8">
+        <f>Table1[[#This Row],[الضريبة]]+Table1[[#This Row],[اصل المبلغ]]</f>
+        <v>1449.575</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H3" s="2">
-        <v>311340058700003</v>
+        <v>310864207200003</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45259</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2262</v>
-      </c>
-      <c r="C4" s="3">
-        <f t="shared" ref="C4:C6" si="2">B4*0.15</f>
-        <v>339.3</v>
-      </c>
-      <c r="D4" s="5">
-        <f t="shared" ref="D4:D6" si="3">C4+B4</f>
-        <v>2601.3000000000002</v>
-      </c>
-      <c r="E4" s="3" t="s">
+        <v>45295</v>
+      </c>
+      <c r="B4" s="7">
+        <v>261</v>
+      </c>
+      <c r="C4" s="7">
+        <f>Table1[[#This Row],[اصل المبلغ]]*0.15</f>
+        <v>39.15</v>
+      </c>
+      <c r="D4" s="8">
+        <f>Table1[[#This Row],[الضريبة]]+Table1[[#This Row],[اصل المبلغ]]</f>
+        <v>300.14999999999998</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
       <c r="H4" s="2">
-        <v>311340058700003</v>
+        <v>310864207200003</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45265</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1586</v>
-      </c>
-      <c r="C5" s="3">
-        <f t="shared" si="2"/>
-        <v>237.89999999999998</v>
-      </c>
-      <c r="D5" s="5">
-        <f t="shared" si="3"/>
-        <v>1823.9</v>
-      </c>
-      <c r="E5" s="3" t="s">
+        <v>45296</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4956.3</v>
+      </c>
+      <c r="C5" s="7">
+        <f>Table1[[#This Row],[اصل المبلغ]]*0.15</f>
+        <v>743.44500000000005</v>
+      </c>
+      <c r="D5" s="8">
+        <f>Table1[[#This Row],[الضريبة]]+Table1[[#This Row],[اصل المبلغ]]</f>
+        <v>5699.7449999999999</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H5" s="2">
-        <v>311340058700003</v>
+        <v>310864207200003</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45266</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2054.4299999999998</v>
-      </c>
-      <c r="C6" s="3">
-        <f t="shared" si="2"/>
-        <v>308.16449999999998</v>
-      </c>
-      <c r="D6" s="5">
-        <f t="shared" si="3"/>
-        <v>2362.5944999999997</v>
-      </c>
-      <c r="E6" s="3" t="s">
+        <v>45299</v>
+      </c>
+      <c r="B6" s="7">
+        <v>695.5</v>
+      </c>
+      <c r="C6" s="7">
+        <f>Table1[[#This Row],[اصل المبلغ]]*0.15</f>
+        <v>104.325</v>
+      </c>
+      <c r="D6" s="8">
+        <f>Table1[[#This Row],[الضريبة]]+Table1[[#This Row],[اصل المبلغ]]</f>
+        <v>799.82500000000005</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2">
+        <v>310864207200003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1130</v>
+      </c>
+      <c r="C7" s="7">
+        <f>Table1[[#This Row],[اصل المبلغ]]*0.15</f>
+        <v>169.5</v>
+      </c>
+      <c r="D7" s="8">
+        <f>Table1[[#This Row],[الضريبة]]+Table1[[#This Row],[اصل المبلغ]]</f>
+        <v>1299.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="2">
+        <v>310864207200003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1008.4</v>
+      </c>
+      <c r="C8" s="7">
+        <f>Table1[[#This Row],[اصل المبلغ]]*0.15</f>
+        <v>151.26</v>
+      </c>
+      <c r="D8" s="8">
+        <f>Table1[[#This Row],[الضريبة]]+Table1[[#This Row],[اصل المبلغ]]</f>
+        <v>1159.6599999999999</v>
+      </c>
+      <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="2">
-        <v>311340058700003</v>
+      <c r="F8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="2">
+        <v>310864207200003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B9" s="7">
+        <v>495.63</v>
+      </c>
+      <c r="C9" s="7">
+        <f>Table1[[#This Row],[اصل المبلغ]]*0.15</f>
+        <v>74.344499999999996</v>
+      </c>
+      <c r="D9" s="8">
+        <f>Table1[[#This Row],[الضريبة]]+Table1[[#This Row],[اصل المبلغ]]</f>
+        <v>569.97450000000003</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="2">
+        <v>310864207200003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1391</v>
+      </c>
+      <c r="C10" s="7">
+        <f>Table1[[#This Row],[اصل المبلغ]]*0.15</f>
+        <v>208.65</v>
+      </c>
+      <c r="D10" s="8">
+        <f>Table1[[#This Row],[الضريبة]]+Table1[[#This Row],[اصل المبلغ]]</f>
+        <v>1599.65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2">
+        <v>310864207200003</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F6">
-    <cfRule type="duplicateValues" dxfId="1" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
+  <conditionalFormatting sqref="F2:F10">
+    <cfRule type="duplicateValues" dxfId="1" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="95"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
